--- a/EGGI_Temperature/2021年10月27日.xlsx
+++ b/EGGI_Temperature/2021年10月27日.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\Learn_Python\temperture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentncutedutw-my.sharepoint.com/personal/s3a813213_student_ncut_edu_tw/Documents/雲端資料/PyQT/EGGI_Temperature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0305501-A544-4AF7-8926-03519C8CBADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B0305501-A544-4AF7-8926-03519C8CBADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D0BD69-C341-498E-A46D-B46DC434D4C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021年10月27日" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -140,7 +140,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -148,7 +148,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -157,7 +157,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -166,7 +166,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -175,7 +175,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -183,7 +183,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -191,7 +191,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -199,7 +199,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -207,7 +207,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -216,7 +216,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -225,7 +225,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -233,7 +233,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -242,7 +242,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -250,7 +250,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -268,7 +268,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -276,7 +276,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -979,16 +986,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1286,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1478,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1606,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1638,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +1926,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2150,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2310,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +2406,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2470,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2502,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2694,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2726,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2748,7 +2758,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2812,7 +2822,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2854,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2908,7 +2918,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3068,7 +3078,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3164,7 +3174,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3196,7 +3206,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3260,7 +3270,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3324,7 +3334,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3388,7 +3398,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3420,7 +3430,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3494,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3526,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3558,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3580,7 +3590,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3622,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3654,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3708,7 +3718,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3772,7 +3782,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3846,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3932,7 +3942,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4070,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4092,7 +4102,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4166,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4188,7 +4198,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4220,7 +4230,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4252,7 +4262,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4316,7 +4326,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4348,7 +4358,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -4412,7 +4422,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -4444,7 +4454,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -4540,7 +4550,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4572,7 +4582,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -4604,7 +4614,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -4700,7 +4710,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -4732,7 +4742,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -4764,7 +4774,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -4796,7 +4806,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -4828,7 +4838,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -4892,7 +4902,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4924,7 +4934,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4956,7 +4966,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -4988,7 +4998,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -5116,7 +5126,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -5180,7 +5190,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -5212,7 +5222,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -5276,7 +5286,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -5308,7 +5318,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -5372,7 +5382,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -5404,7 +5414,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -5468,7 +5478,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -5500,7 +5510,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -5532,7 +5542,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -5564,7 +5574,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +5606,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -5628,7 +5638,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -5692,7 +5702,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -5724,7 +5734,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -5756,7 +5766,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +5830,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -5852,7 +5862,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -5884,7 +5894,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -5916,7 +5926,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -5948,7 +5958,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -6012,7 +6022,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -6044,7 +6054,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -6076,7 +6086,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -6108,7 +6118,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -6172,7 +6182,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -6204,7 +6214,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -6236,7 +6246,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -6268,7 +6278,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -6300,7 +6310,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -6332,7 +6342,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -6364,7 +6374,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -6396,7 +6406,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -6428,7 +6438,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -6524,7 +6534,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -6556,7 +6566,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -6588,7 +6598,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -6620,7 +6630,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -6684,7 +6694,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -6716,7 +6726,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -6748,7 +6758,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -6780,7 +6790,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -6812,7 +6822,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -6844,7 +6854,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -6876,7 +6886,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -6940,7 +6950,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -6972,7 +6982,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -7004,7 +7014,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -7036,7 +7046,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +7078,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -7100,7 +7110,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -7196,7 +7206,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -7228,7 +7238,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -7260,7 +7270,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -7292,7 +7302,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -7324,7 +7334,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -7356,7 +7366,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -7388,7 +7398,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -7420,7 +7430,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -7452,7 +7462,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -7484,7 +7494,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -7516,7 +7526,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -7548,7 +7558,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -7580,7 +7590,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -7612,7 +7622,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -7644,7 +7654,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -7676,7 +7686,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -7708,7 +7718,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -7740,7 +7750,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -7772,7 +7782,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -7804,7 +7814,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -7836,7 +7846,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -7868,7 +7878,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -7900,7 +7910,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -7932,7 +7942,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -7964,7 +7974,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -7996,7 +8006,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -8028,7 +8038,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -8060,7 +8070,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -8092,7 +8102,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -8124,7 +8134,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +8166,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -8188,7 +8198,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -8220,7 +8230,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -8252,7 +8262,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -8284,7 +8294,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -8316,7 +8326,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -8348,7 +8358,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -8380,7 +8390,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -8412,7 +8422,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -8444,7 +8454,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -8476,7 +8486,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -8508,7 +8518,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>26</v>
       </c>
@@ -8540,7 +8550,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -8572,7 +8582,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -8604,7 +8614,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>26</v>
       </c>
@@ -8636,7 +8646,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>26</v>
       </c>
@@ -8668,7 +8678,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -8700,7 +8710,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -8764,7 +8774,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -8796,7 +8806,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -8828,7 +8838,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -8892,7 +8902,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -8924,7 +8934,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>27</v>
       </c>
@@ -8956,7 +8966,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -8988,7 +8998,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -9020,7 +9030,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -9052,7 +9062,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -9084,7 +9094,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>28</v>
       </c>
@@ -9116,7 +9126,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>28</v>
       </c>
@@ -9148,7 +9158,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>28</v>
       </c>
@@ -9180,7 +9190,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>28</v>
       </c>
@@ -9212,7 +9222,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>28</v>
       </c>
@@ -9244,7 +9254,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>28</v>
       </c>
@@ -9276,7 +9286,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -9308,7 +9318,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>28</v>
       </c>
@@ -9340,7 +9350,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -9372,7 +9382,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -9404,7 +9414,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -9436,7 +9446,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>29</v>
       </c>
@@ -9468,7 +9478,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>29</v>
       </c>
@@ -9500,7 +9510,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>29</v>
       </c>
@@ -9532,7 +9542,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>29</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>29</v>
       </c>
@@ -9596,7 +9606,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -9628,7 +9638,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -9660,7 +9670,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>29</v>
       </c>
@@ -9692,7 +9702,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -9724,7 +9734,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>30</v>
       </c>
@@ -9756,7 +9766,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>30</v>
       </c>
@@ -9788,7 +9798,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>30</v>
       </c>
@@ -9820,7 +9830,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>30</v>
       </c>
@@ -9852,7 +9862,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -9884,7 +9894,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>30</v>
       </c>
@@ -9916,7 +9926,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>30</v>
       </c>
@@ -9948,7 +9958,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -9980,7 +9990,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>31</v>
       </c>
@@ -10044,7 +10054,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>31</v>
       </c>
@@ -10076,7 +10086,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>31</v>
       </c>
@@ -10108,7 +10118,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>31</v>
       </c>
@@ -10140,7 +10150,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>31</v>
       </c>
@@ -10172,7 +10182,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>31</v>
       </c>
@@ -10204,7 +10214,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>31</v>
       </c>
@@ -10236,7 +10246,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>31</v>
       </c>
@@ -10268,7 +10278,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>32</v>
       </c>
@@ -10300,7 +10310,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>32</v>
       </c>
@@ -10332,7 +10342,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -10364,7 +10374,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>32</v>
       </c>
@@ -10396,7 +10406,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -10428,7 +10438,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -10460,7 +10470,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>32</v>
       </c>
@@ -10492,7 +10502,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>32</v>
       </c>
@@ -10524,7 +10534,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -10556,7 +10566,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -10588,7 +10598,7 @@
         <v>-204.8</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>33</v>
       </c>
@@ -10621,6 +10631,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>